--- a/doc/examples/example-1.xlsx
+++ b/doc/examples/example-1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Git\workspace-inmetrics-selenium\wall-e\doc\samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Git\workspace-github\wall-e\doc\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>Col_A</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Col_D</t>
   </si>
   <si>
-    <t>Col_E</t>
-  </si>
-  <si>
     <t>Um</t>
   </si>
   <si>
@@ -79,6 +76,72 @@
   </si>
   <si>
     <t>primo</t>
+  </si>
+  <si>
+    <t>Col_F</t>
+  </si>
+  <si>
+    <t>COL_G</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZisWjdjs-gM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=m5_lIuBXKWk</t>
+  </si>
+  <si>
+    <t>COL_H</t>
+  </si>
+  <si>
+    <t>Wall-e English</t>
+  </si>
+  <si>
+    <t>Wall-e Portuguese</t>
+  </si>
+  <si>
+    <t>Wall-e Automation</t>
+  </si>
+  <si>
+    <t>https://github.com/josemarsilva/wall-e/wiki</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=od_Lja9QstQ</t>
+  </si>
+  <si>
+    <t>Wall-e Vignettes</t>
+  </si>
+  <si>
+    <t>http://nosbastidores.com.br/critica-wall-e/</t>
+  </si>
+  <si>
+    <t>Wall-e Bastidores</t>
+  </si>
+  <si>
+    <t>Wall-e Curiosidades</t>
+  </si>
+  <si>
+    <t>http://www.adorocinema.com/filmes/filme-123734/curiosidades/</t>
+  </si>
+  <si>
+    <t>http://www1.folha.uol.com.br/folha/livrariadafolha/762371-nos-bastidores-da-pixar-ensina-a-montar-empresa-dos-sonhos.shtml</t>
+  </si>
+  <si>
+    <t>Wall-e Crítica</t>
+  </si>
+  <si>
+    <t>https://www.papodecinema.com.br/filmes/wall%C2%B7e/</t>
+  </si>
+  <si>
+    <t>http://videos.disney.com.br/ver/wall-e-a-danca-de-wall-e-e-eve-4f1203cb217f652267e7f48a</t>
+  </si>
+  <si>
+    <t>Wall-e Dance with Eve</t>
+  </si>
+  <si>
+    <t>http://www.adorocinema.com/noticias/filmes/noticia-122661/</t>
+  </si>
+  <si>
+    <t>Wall-e Continuação da série</t>
   </si>
 </sst>
 </file>
@@ -88,10 +151,18 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -114,15 +185,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -435,18 +509,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,15 +538,21 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C10" si="0">A2&amp;" - "&amp;B2</f>
@@ -481,13 +565,19 @@
         <f>A2/100</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
@@ -501,15 +591,21 @@
         <v>2.02</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -523,15 +619,21 @@
         <v>5.0199999999999996</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -539,19 +641,25 @@
       </c>
       <c r="D5" s="1">
         <f ca="1">TODAY()</f>
-        <v>43110</v>
+        <v>43116</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="1"/>
         <v>9.02</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -566,15 +674,21 @@
         <v>14.02</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -588,13 +702,19 @@
         <f t="shared" si="1"/>
         <v>20.02</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -609,15 +729,21 @@
         <v>27.02</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -625,19 +751,25 @@
       </c>
       <c r="D9" s="1">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(D5),DAY(D5))</f>
-        <v>43110</v>
+        <v>43116</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
         <v>35.019999999999996</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -651,13 +783,19 @@
         <f t="shared" si="1"/>
         <v>44.019999999999996</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="str">
         <f>A11&amp;" - "&amp;B11</f>
@@ -671,8 +809,26 @@
         <f t="shared" si="1"/>
         <v>54.019999999999996</v>
       </c>
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId2"/>
+    <hyperlink ref="H4" r:id="rId3"/>
+    <hyperlink ref="H5" r:id="rId4"/>
+    <hyperlink ref="H6" r:id="rId5"/>
+    <hyperlink ref="H7" r:id="rId6"/>
+    <hyperlink ref="H8" r:id="rId7"/>
+    <hyperlink ref="H9" r:id="rId8"/>
+    <hyperlink ref="H10" r:id="rId9"/>
+    <hyperlink ref="H11" r:id="rId10"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -693,10 +849,10 @@
   <sheetData>
     <row r="1" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
         <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="4:6" x14ac:dyDescent="0.25">
@@ -704,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="4:6" x14ac:dyDescent="0.25">
@@ -712,7 +868,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="4:6" x14ac:dyDescent="0.25">
@@ -720,7 +876,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
